--- a/Output/Japan/CUSTOMERS_Japan.xlsx
+++ b/Output/Japan/CUSTOMERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -107,16 +107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.91015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.96875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.8359375" customWidth="true" bestFit="true"/>
@@ -145,52 +145,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>398.0</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/Japan/CUSTOMERS_Japan.xlsx
+++ b/Output/Japan/CUSTOMERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
@@ -107,16 +107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.49609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="4.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.359375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.96875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="9.8359375" customWidth="true" bestFit="true"/>
@@ -145,6 +145,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/Japan/CUSTOMERS_Japan.xlsx
+++ b/Output/Japan/CUSTOMERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>

--- a/Output/Japan/CUSTOMERS_Japan.xlsx
+++ b/Output/Japan/CUSTOMERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>

--- a/Output/Japan/CUSTOMERS_Japan.xlsx
+++ b/Output/Japan/CUSTOMERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>CUSTOMERNUMBER</t>
   </si>
